--- a/src/dataEngine/DataEngine11.xlsx
+++ b/src/dataEngine/DataEngine11.xlsx
@@ -4,19 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16665" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="Action_Keyword">Settings!$D$2:$D$10</definedName>
+    <definedName name="Action_Keywords">Settings!$D$2:$D$10</definedName>
+    <definedName name="Home_Page">Settings!$B$2:$B$10</definedName>
+    <definedName name="Login_Page">Settings!$C$2:$C$10</definedName>
+    <definedName name="Page_Name">Settings!$A$2:$A$10</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -63,9 +70,6 @@
     <t>btn_SignIn</t>
   </si>
   <si>
-    <t>click_SignIn</t>
-  </si>
-  <si>
     <t>TS_04</t>
   </si>
   <si>
@@ -75,74 +79,120 @@
     <t>txtbx_Email</t>
   </si>
   <si>
-    <t>input_Email</t>
+    <t>TS_06</t>
+  </si>
+  <si>
+    <t>Enter the Password in the Password field</t>
+  </si>
+  <si>
+    <t>txtbx_Password</t>
+  </si>
+  <si>
+    <t>TS_07</t>
+  </si>
+  <si>
+    <t>Click on Login button</t>
+  </si>
+  <si>
+    <t>btn_LogIn</t>
+  </si>
+  <si>
+    <t>TS_08</t>
+  </si>
+  <si>
+    <t>wait for some time</t>
+  </si>
+  <si>
+    <t>wait_For</t>
+  </si>
+  <si>
+    <t>TS_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on SignOutbutton </t>
+  </si>
+  <si>
+    <t>TS_10</t>
+  </si>
+  <si>
+    <t>Close the Browser</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Login_02</t>
+  </si>
+  <si>
+    <t>Login in into Amazon</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>btn_SignOut</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
   <si>
     <t>TS_05</t>
   </si>
   <si>
-    <t xml:space="preserve">Click on Continue button </t>
-  </si>
-  <si>
-    <t>click_Continue</t>
-  </si>
-  <si>
-    <t>TS_06</t>
-  </si>
-  <si>
-    <t>Enter the Password in the Password field</t>
-  </si>
-  <si>
-    <t>txtbx_Password</t>
-  </si>
-  <si>
-    <t>input_Password</t>
-  </si>
-  <si>
-    <t>TS_07</t>
-  </si>
-  <si>
-    <t>Click on Login button</t>
-  </si>
-  <si>
-    <t>btn_LogIn</t>
-  </si>
-  <si>
-    <t>click_Login</t>
-  </si>
-  <si>
-    <t>TS_08</t>
-  </si>
-  <si>
-    <t>wait for some time</t>
-  </si>
-  <si>
-    <t>wait_For</t>
-  </si>
-  <si>
-    <t>TS_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on SignOutbutton </t>
-  </si>
-  <si>
-    <t>click_SignOut</t>
-  </si>
-  <si>
-    <t>TS_10</t>
-  </si>
-  <si>
-    <t>Close the Browser</t>
-  </si>
-  <si>
-    <t>closeBrowser</t>
+    <t>Click on Continue button</t>
+  </si>
+  <si>
+    <t>btn_Continue</t>
+  </si>
+  <si>
+    <t>Data Set</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>zebatanveer.2013@gmail.com</t>
+  </si>
+  <si>
+    <t>zeba9823</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Home_Page</t>
+  </si>
+  <si>
+    <t>Login_Page</t>
+  </si>
+  <si>
+    <t>Login_Page Object</t>
+  </si>
+  <si>
+    <t>Home_Page Objects</t>
+  </si>
+  <si>
+    <t>Action Keywords</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +204,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,16 +234,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,22 +546,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,13 +575,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -527,11 +600,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -541,11 +617,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -555,145 +631,281 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D11 F1:F11">
+      <formula1>Page_Name</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/dataEngine/DataEngine11.xlsx
+++ b/src/dataEngine/DataEngine11.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2EDDA8-4DB3-47AB-8A5E-1C79392D6862}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16665" windowHeight="6135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Test Steps" sheetId="1" r:id="rId2"/>
     <sheet name="Settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -185,13 +186,24 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>TS_11</t>
+  </si>
+  <si>
+    <t>Click on Account and list button</t>
+  </si>
+  <si>
+    <t>btn_Account</t>
+  </si>
+  <si>
+    <t>mouseHover</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,6 +267,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -302,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,9 +350,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,247 +594,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D11 F1:F11">
-      <formula1>Page_Name</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,7 +623,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -828,8 +650,254 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F12 D1:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>Page_Name</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -838,10 +906,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/dataEngine/DataEngine11.xlsx
+++ b/src/dataEngine/DataEngine11.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -198,12 +198,16 @@
   </si>
   <si>
     <t>mouseHover</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,9 +607,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,6 +635,9 @@
       </c>
       <c r="C2" t="s">
         <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,14 +667,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -712,6 +719,9 @@
       <c r="G2" t="s">
         <v>44</v>
       </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -726,6 +736,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -743,6 +756,9 @@
       <c r="F4" t="s">
         <v>37</v>
       </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -763,6 +779,9 @@
       <c r="G5" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -780,6 +799,9 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -800,6 +822,9 @@
       <c r="G7" t="s">
         <v>46</v>
       </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -817,6 +842,9 @@
       <c r="F8" t="s">
         <v>37</v>
       </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
       <c r="L8" t="s">
         <v>53</v>
       </c>
@@ -834,6 +862,9 @@
       <c r="F9" t="s">
         <v>26</v>
       </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -851,6 +882,9 @@
       <c r="F10" t="s">
         <v>57</v>
       </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -868,6 +902,9 @@
       <c r="F11" t="s">
         <v>37</v>
       </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -881,6 +918,9 @@
       </c>
       <c r="F12" t="s">
         <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -906,10 +946,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/dataEngine/DataEngine11.xlsx
+++ b/src/dataEngine/DataEngine11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2EDDA8-4DB3-47AB-8A5E-1C79392D6862}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CC2D04-D98C-49B2-A519-BE0D234FFA9A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -131,76 +131,82 @@
     <t>Login in into Amazon</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>btn_SignOut</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>TS_05</t>
+  </si>
+  <si>
+    <t>Click on Continue button</t>
+  </si>
+  <si>
+    <t>btn_Continue</t>
+  </si>
+  <si>
+    <t>Data Set</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>zebatanveer.2013@gmail.com</t>
+  </si>
+  <si>
+    <t>zeba9823</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Home_Page</t>
+  </si>
+  <si>
+    <t>Login_Page</t>
+  </si>
+  <si>
+    <t>Login_Page Object</t>
+  </si>
+  <si>
+    <t>Home_Page Objects</t>
+  </si>
+  <si>
+    <t>Action Keywords</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>TS_11</t>
+  </si>
+  <si>
+    <t>Click on Account and list button</t>
+  </si>
+  <si>
+    <t>btn_Account</t>
+  </si>
+  <si>
+    <t>mouseHover</t>
+  </si>
+  <si>
+    <t>Login in and log out into Amazon</t>
+  </si>
+  <si>
+    <t>zeba</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>btn_SignOut</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>TS_05</t>
-  </si>
-  <si>
-    <t>Click on Continue button</t>
-  </si>
-  <si>
-    <t>btn_Continue</t>
-  </si>
-  <si>
-    <t>Data Set</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>zebatanveer.2013@gmail.com</t>
-  </si>
-  <si>
-    <t>zeba9823</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>Home_Page</t>
-  </si>
-  <si>
-    <t>Login_Page</t>
-  </si>
-  <si>
-    <t>Login_Page Object</t>
-  </si>
-  <si>
-    <t>Home_Page Objects</t>
-  </si>
-  <si>
-    <t>Action Keywords</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>TS_11</t>
-  </si>
-  <si>
-    <t>Click on Account and list button</t>
-  </si>
-  <si>
-    <t>btn_Account</t>
-  </si>
-  <si>
-    <t>mouseHover</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -602,7 +608,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +629,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,13 +637,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,6 +655,9 @@
       </c>
       <c r="C3" t="s">
         <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -659,10 +668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -697,10 +706,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -717,10 +726,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -737,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -754,10 +763,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -774,13 +783,13 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -788,19 +797,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -817,13 +826,13 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -840,13 +849,13 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -863,7 +872,7 @@
         <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -874,16 +883,16 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -897,13 +906,13 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -911,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -920,17 +929,198 @@
         <v>31</v>
       </c>
       <c r="H12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
         <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F12 D1:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F21 D1:D21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Page_Name</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G16" r:id="rId2" xr:uid="{AC2203A7-B801-4851-BB7A-92005B3E56EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -957,18 +1147,18 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -982,10 +1172,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -999,12 +1189,12 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
